--- a/networks/RNN/inputs_shape.xlsx
+++ b/networks/RNN/inputs_shape.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus\machine-learning\networks\RNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB9547E1-15A3-4668-85D3-182F4FA81BCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EEFA5F-05AB-4DE5-91FF-AC5AA1108A79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7785" yWindow="495" windowWidth="25410" windowHeight="14475" xr2:uid="{C4CF818B-D61F-4177-8D26-ED77C907EEF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>sample_1</t>
   </si>
@@ -93,9 +93,6 @@
     <t>PAD</t>
   </si>
   <si>
-    <t>MAX sequence length = 6</t>
-  </si>
-  <si>
     <t>Sequence length</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>Batch shape = (batch_size, num_features, max_seq_len)</t>
+  </si>
+  <si>
+    <t>num_features = 3</t>
+  </si>
+  <si>
+    <t>max_sequence_length = 6</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -254,6 +257,28 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -266,9 +291,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,18 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -302,6 +312,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCE3810-0179-4BD0-AE87-FD5FFB719D75}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,319 +656,350 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="J4" s="12">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9">
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9">
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="13" t="s">
+      <c r="L10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C2:L2"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
